--- a/xlsx/谚文_intext.xlsx
+++ b/xlsx/谚文_intext.xlsx
@@ -15,65 +15,68 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="374">
   <si>
     <t>谚文</t>
   </si>
   <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%AB%BA%E6%96%87</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%9F%93%E6%96%87_(%E6%B6%88%E6%AD%A7%E7%BE%A9)</t>
+  </si>
+  <si>
+    <t>韩文 (消歧义)</t>
+  </si>
+  <si>
+    <t>政策_政策_美国_谚文</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E9%9F%B3%E7%B4%A0%E6%96%87%E5%AD%97</t>
+  </si>
+  <si>
+    <t>全音素文字</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%9F%93%E8%AA%9E</t>
+  </si>
+  <si>
+    <t>韩语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%90%89%E9%98%BF%E5%90%89%E9%98%BF%E8%AA%9E</t>
+  </si>
+  <si>
+    <t>吉阿吉阿语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/ISO_15924</t>
+  </si>
+  <si>
+    <t>ISO 15924</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/Unicode</t>
+  </si>
+  <si>
+    <t>Unicode</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E9%99%85%E9%9F%B3%E6%A0%87</t>
+  </si>
+  <si>
+    <t>国际音标</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9C%9D%E9%B2%9C%E8%AF%AD</t>
+  </si>
+  <si>
+    <t>朝鲜语</t>
+  </si>
+  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B0%9A%E6%96%87</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9F%93%E6%96%87_(%E6%B6%88%E6%AD%A7%E7%BE%A9)</t>
-  </si>
-  <si>
-    <t>韩文 (消歧义)</t>
-  </si>
-  <si>
-    <t>政策_政策_維基百科_谚文</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E9%9F%B3%E7%B4%A0%E6%96%87%E5%AD%97</t>
-  </si>
-  <si>
-    <t>全音素文字</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9F%93%E8%AA%9E</t>
-  </si>
-  <si>
-    <t>韓語</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%90%89%E9%98%BF%E5%90%89%E9%98%BF%E8%AA%9E</t>
-  </si>
-  <si>
-    <t>吉阿吉阿語</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/ISO_15924</t>
-  </si>
-  <si>
-    <t>ISO 15924</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/Unicode</t>
-  </si>
-  <si>
-    <t>Unicode</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E9%99%85%E9%9F%B3%E6%A0%87</t>
-  </si>
-  <si>
-    <t>国际音标</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9C%9D%E9%B2%9C%E8%AF%AD</t>
-  </si>
-  <si>
-    <t>朝鲜语</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%87%E5%8C%96%E8%A7%82%E5%85%89%E9%83%A82000%E5%B9%B4%E5%BC%8F</t>
   </si>
   <si>
@@ -89,13 +92,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AD%97%E6%AF%8D%E6%AD%B7%E5%8F%B2</t>
   </si>
   <si>
-    <t>字母歷史</t>
+    <t>字母历史</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9D%92%E9%8A%85%E4%B8%AD%E6%9C%9F%E6%96%87%E5%8C%96%E6%99%82%E6%9C%9F%E5%AD%97%E6%AF%8D</t>
   </si>
   <si>
-    <t>青銅中期文化時期字母</t>
+    <t>青铜中期文化时期字母</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%8C%E5%8A%A0%E9%87%8C%E7%89%B9%E5%AD%97%E6%AF%8D</t>
@@ -119,13 +122,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B8%8C%E4%BC%AF%E4%BE%86%E5%AD%97%E6%AF%8D</t>
   </si>
   <si>
-    <t>古希伯來字母</t>
+    <t>古希伯来字母</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E8%98%AD%E5%AD%97%E6%AF%8D</t>
   </si>
   <si>
-    <t>亞蘭字母</t>
+    <t>亚兰字母</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%89%E5%8D%A2%E6%96%87</t>
@@ -155,13 +158,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%83%A7%E4%BC%BD%E7%BE%85%E6%96%87</t>
   </si>
   <si>
-    <t>僧伽羅文</t>
+    <t>僧伽罗文</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%82%89%E6%9B%87%E6%96%87%E5%AD%97</t>
   </si>
   <si>
-    <t>悉曇文字</t>
+    <t>悉昙文字</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%97%8F%E6%96%87</t>
@@ -215,13 +218,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E4%BC%AF%E4%BE%86%E5%AD%97%E6%AF%8D</t>
   </si>
   <si>
-    <t>希伯來字母</t>
+    <t>希伯来字母</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%98%E5%88%A9%E4%BA%9E%E5%AD%97%E6%AF%8D</t>
   </si>
   <si>
-    <t>敘利亞字母</t>
+    <t>叙利亚字母</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B2%9F%E7%89%B9%E6%96%87</t>
@@ -257,7 +260,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%8D%E5%B7%B4%E6%B3%B0%E5%AD%97%E6%AF%8D</t>
   </si>
   <si>
-    <t>納巴泰字母</t>
+    <t>纳巴泰字母</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E4%BC%AF%E5%AD%97%E6%AF%8D</t>
@@ -269,7 +272,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%87%98%E5%AD%97%E6%AF%8D</t>
   </si>
   <si>
-    <t>希臘字母</t>
+    <t>希腊字母</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E6%84%8F%E5%A4%A7%E5%88%A9%E5%AD%97%E6%AF%8D</t>
@@ -287,13 +290,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9B%A7%E6%81%A9%E5%AD%97%E6%AF%8D</t>
   </si>
   <si>
-    <t>盧恩字母</t>
+    <t>卢恩字母</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E7%94%98%E5%AD%97%E6%AF%8D</t>
   </si>
   <si>
-    <t>歐甘字母</t>
+    <t>欧甘字母</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E6%99%AE%E7%89%B9%E5%AD%97%E6%AF%8D</t>
@@ -317,7 +320,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E7%BE%8E%E5%B0%BC%E4%BA%9E%E5%AD%97%E6%AF%8D</t>
   </si>
   <si>
-    <t>亞美尼亞字母</t>
+    <t>亚美尼亚字母</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E6%8B%89%E5%93%A5%E9%87%8C%E5%AD%97%E6%AF%8D</t>
@@ -335,7 +338,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%AF%94%E5%88%A9%E4%BA%9E%E6%96%87%E5%AD%97</t>
   </si>
   <si>
-    <t>伊比利亞文字</t>
+    <t>伊比利亚文字</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E9%98%BF%E6%8B%89%E4%BC%AF%E5%AD%97%E6%AF%8D</t>
@@ -347,31 +350,31 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%89%E8%8C%B2%E5%AD%97%E6%AF%8D</t>
   </si>
   <si>
-    <t>吉茲字母</t>
+    <t>吉兹字母</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BA%A5%E7%BE%85%E5%9F%83%E6%96%87</t>
   </si>
   <si>
-    <t>麥羅埃文</t>
+    <t>麦罗埃文</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E8%AA%9E%E5%81%87%E5%90%8D</t>
   </si>
   <si>
-    <t>日語假名</t>
+    <t>日语假名</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%8B%BF%E5%A4%A7%E5%8E%9F%E4%BD%8F%E6%B0%91%E9%9F%B3%E7%AF%80%E6%96%87%E5%AD%97</t>
   </si>
   <si>
-    <t>加拿大原住民音節文字</t>
+    <t>加拿大原住民音节文字</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A8%E9%9F%B3%E7%AC%A6%E8%99%9F</t>
   </si>
   <si>
-    <t>注音符號</t>
+    <t>注音符号</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BD%9D%E6%96%87</t>
@@ -383,79 +386,76 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8E%9F%E5%A7%8B%E8%A5%BF%E5%A5%88%E6%96%87%E5%AD%97%E7%B3%BB%E8%AD%9C</t>
   </si>
   <si>
-    <t>原始西奈文字系譜</t>
+    <t>原始西奈文字系谱</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A8%93%E6%B0%91%E6%AD%A3%E9%9F%B3</t>
   </si>
   <si>
-    <t>訓民正音</t>
+    <t>训民正音</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E8%AB%BA%E6%96%87</t>
   </si>
   <si>
-    <t>古諺文</t>
+    <t>古谚文</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AB%BA%E6%96%87%E5%AD%97%E6%AF%8D%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>諺文字母列表</t>
+    <t>谚文字母列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%9D%E9%AE%AE%E6%BC%A2%E5%AD%97</t>
   </si>
   <si>
-    <t>朝鮮漢字</t>
+    <t>朝鲜汉字</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%84%89%E6%9C%AD</t>
   </si>
   <si>
-    <t>鄉札</t>
+    <t>乡札</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A3%E8%A8%A3_(%E6%9C%9D%E9%AE%AE%E8%AA%9E)</t>
   </si>
   <si>
-    <t>口訣 (朝鮮語)</t>
+    <t>口诀 (朝鲜语)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%8F%E8%AE%80</t>
   </si>
   <si>
-    <t>吏讀</t>
+    <t>吏读</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9F%93%E6%BC%A2%E6%B7%B7%E7%94%A8%E6%96%87</t>
   </si>
   <si>
-    <t>韓漢混用文</t>
+    <t>韩汉混用文</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%9D%E9%AE%AE%E8%AA%9E%E6%8B%89%E4%B8%81%E5%8C%96</t>
   </si>
   <si>
-    <t>朝鮮語拉丁化</t>
+    <t>朝鲜语拉丁化</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E7%A7%91%E6%81%A9-%E8%B3%B4%E8%82%96%E7%88%BE%E8%A1%A8%E8%A8%98%E6%B3%95</t>
   </si>
   <si>
-    <t>馬科恩-賴肖爾表記法</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%80%B6%E9%AD%AF%E6%8B%BC%E9%9F%B3</t>
   </si>
   <si>
-    <t>耶魯拼音</t>
+    <t>耶鲁拼音</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9F%93%E5%9C%8B</t>
   </si>
   <si>
-    <t>韓國</t>
+    <t>韩国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%9D%E9%B2%9C</t>
@@ -467,15 +467,9 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AE%AD%E6%B0%91%E6%AD%A3%E9%9F%B3</t>
   </si>
   <si>
-    <t>训民正音</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%9D%E9%AE%AE%E8%AA%9E</t>
   </si>
   <si>
-    <t>朝鮮語</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%A8%E9%9F%B3%E6%96%87%E5%AD%97</t>
   </si>
   <si>
@@ -485,19 +479,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9C%9D%E9%AE%AE%E7%8E%8B%E6%9C%9D</t>
   </si>
   <si>
-    <t>朝鮮王朝</t>
+    <t>朝鲜王朝</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%9D%E9%AE%AE%E4%B8%96%E5%AE%97</t>
   </si>
   <si>
-    <t>朝鮮世宗</t>
+    <t>朝鲜世宗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9F%93%E5%9C%8B%E4%BA%BA</t>
   </si>
   <si>
-    <t>韓國人</t>
+    <t>韩国人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AD%A6%E4%B9%A0</t>
@@ -539,9 +533,6 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9C%9D%E9%B2%9C%E7%8E%8B%E6%9C%9D</t>
   </si>
   <si>
-    <t>朝鲜王朝</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E5%AE%97%E5%A4%A7%E7%8E%8B</t>
   </si>
   <si>
@@ -557,31 +548,28 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9C%9D%E9%AE%AE</t>
   </si>
   <si>
-    <t>朝鮮</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A9%E7%8F%AD</t>
   </si>
   <si>
-    <t>兩班</t>
+    <t>两班</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E6%96%87%E6%98%8E</t>
   </si>
   <si>
-    <t>中國文明</t>
+    <t>中国文明</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A0%BB%E5%A4%B7</t>
   </si>
   <si>
-    <t>蠻夷</t>
+    <t>蛮夷</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B4%94%E8%90%AC%E9%87%8C</t>
   </si>
   <si>
-    <t>崔萬里</t>
+    <t>崔万里</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E7%BD%97%E4%B9%9D%E5%B7%9E</t>
@@ -623,7 +611,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E6%AD%B7%E5%8F%B2</t>
   </si>
   <si>
-    <t>中國歷史</t>
+    <t>中国历史</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AE%95%E5%AD%90</t>
@@ -653,25 +641,22 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9C%9D%E9%AE%AE%E6%97%A5%E6%B2%BB%E6%99%82%E6%9C%9F</t>
   </si>
   <si>
-    <t>朝鮮日治時期</t>
+    <t>朝鲜日治时期</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BC%A2%E6%96%87</t>
   </si>
   <si>
-    <t>漢文</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BA%E6%9C%89%E8%A9%9E</t>
   </si>
   <si>
-    <t>固有詞</t>
+    <t>固有词</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E8%AA%9E</t>
   </si>
   <si>
-    <t>華語</t>
+    <t>华语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%8C%97%E6%9C%9D%E9%B2%9C</t>
@@ -683,7 +668,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BC%A2%E5%AD%97%E8%A9%9E</t>
   </si>
   <si>
-    <t>漢字詞</t>
+    <t>汉字词</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BE%85%E9%9F%B3</t>
@@ -701,13 +686,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E6%9C%9D%E9%AE%AE%E6%96%87%E5%AD%97</t>
   </si>
   <si>
-    <t>古朝鮮文字</t>
+    <t>古朝鲜文字</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9F%93%E5%9C%8B%E8%AA%9E</t>
   </si>
   <si>
-    <t>韓國語</t>
+    <t>韩国语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E3%84%B1</t>
@@ -1013,31 +998,31 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E5%8D%81%E5%85%AD%E5%AD%97%E6%AF%8D%E8%88%87%E8%AB%BA%E6%96%87</t>
   </si>
   <si>
-    <t>三十六字母與諺文</t>
+    <t>三十六字母与谚文</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9F%93%E5%9C%8B%E6%BC%A2%E5%AD%97</t>
   </si>
   <si>
-    <t>韓國漢字</t>
+    <t>韩国汉字</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9F%93%E8%AA%9E%E7%BE%85%E9%A6%AC%E5%AD%97%E8%A1%A8%E8%A8%98%E6%B3%95</t>
   </si>
   <si>
-    <t>韓語羅馬字表記法</t>
+    <t>韩语罗马字表记法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E9%9F%93%E6%B0%91%E5%9C%8B%E6%A8%99%E6%BA%96%E8%AA%9E</t>
   </si>
   <si>
-    <t>大韓民國標準語</t>
+    <t>大韩民国标准语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%87%E5%8C%96%E8%AA%9E</t>
   </si>
   <si>
-    <t>文化語</t>
+    <t>文化语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%9D%E9%B2%9C%E8%AF%AD%E9%9F%B3%E7%B3%BB</t>
@@ -1055,7 +1040,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A0%AD%E9%9F%B3%E8%A6%8F%E5%89%87</t>
   </si>
   <si>
-    <t>頭音規則</t>
+    <t>头音规则</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9F%A9%E8%AF%AD%E8%AF%AD%E6%B3%95</t>
@@ -1067,13 +1052,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9C%9D%E9%AE%AE%E8%AA%9E%E6%96%B9%E8%A8%80</t>
   </si>
   <si>
-    <t>朝鮮語方言</t>
+    <t>朝鲜语方言</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%9D%E9%AE%AE%E5%8D%8A%E5%B3%B6</t>
   </si>
   <si>
-    <t>朝鮮半島</t>
+    <t>朝鲜半岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BF%A0%E6%B8%85%E6%96%B9%E8%A8%80</t>
@@ -1097,25 +1082,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BF%9F%E5%B7%9E%E8%AA%9E</t>
   </si>
   <si>
-    <t>濟州語</t>
+    <t>济州语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E6%9C%9D%E9%AE%AE%E8%AA%9E</t>
   </si>
   <si>
-    <t>中國朝鮮語</t>
+    <t>中国朝鲜语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E9%BA%97%E8%AA%9E_(%E8%98%87%E8%81%AF)</t>
   </si>
   <si>
-    <t>高麗語 (蘇聯)</t>
+    <t>高丽语 (苏联)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A8%E6%97%A5%E6%9C%9D%E9%AE%AE%E8%AA%9E</t>
   </si>
   <si>
-    <t>在日朝鮮語</t>
+    <t>在日朝鲜语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%9D%E9%B2%9C%E8%AF%AD%E8%A5%BF%E9%87%8C%E5%B0%94%E8%BD%AC%E5%86%99%E7%B3%BB%E7%BB%9F</t>
@@ -1127,13 +1112,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AB%BA%E6%96%87%E6%AD%A3%E5%AF%AB%E6%B3%95</t>
   </si>
   <si>
-    <t>諺文正寫法</t>
+    <t>谚文正写法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E6%9C%9D%E9%AE%AE%E8%AA%9E</t>
   </si>
   <si>
-    <t>古朝鮮語</t>
+    <t>古朝鲜语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E4%B8%96%E6%9C%9D%E9%B2%9C%E8%AF%AD</t>
@@ -1145,22 +1130,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%AB%BA%E6%96%87</t>
-  </si>
-  <si>
-    <t>浏览条目正文[c]</t>
-  </si>
-  <si>
-    <t>阅读</t>
+    <t>国立国会图书馆</t>
   </si>
 </sst>
 </file>
@@ -1509,7 +1485,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I227"/>
+  <dimension ref="A1:I226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1821,10 +1797,10 @@
         <v>19</v>
       </c>
       <c r="F11" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="H11" t="s">
         <v>4</v>
@@ -1847,10 +1823,10 @@
         <v>11</v>
       </c>
       <c r="E12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" t="s">
         <v>21</v>
-      </c>
-      <c r="F12" t="s">
-        <v>22</v>
       </c>
       <c r="G12" t="n">
         <v>2</v>
@@ -1876,13 +1852,13 @@
         <v>12</v>
       </c>
       <c r="E13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" t="s">
         <v>23</v>
       </c>
-      <c r="F13" t="s">
-        <v>24</v>
-      </c>
       <c r="G13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H13" t="s">
         <v>4</v>
@@ -1905,10 +1881,10 @@
         <v>13</v>
       </c>
       <c r="E14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" t="s">
         <v>25</v>
-      </c>
-      <c r="F14" t="s">
-        <v>26</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
@@ -1934,10 +1910,10 @@
         <v>14</v>
       </c>
       <c r="E15" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" t="s">
         <v>27</v>
-      </c>
-      <c r="F15" t="s">
-        <v>28</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
@@ -1963,10 +1939,10 @@
         <v>15</v>
       </c>
       <c r="E16" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" t="s">
         <v>29</v>
-      </c>
-      <c r="F16" t="s">
-        <v>30</v>
       </c>
       <c r="G16" t="n">
         <v>1</v>
@@ -1992,10 +1968,10 @@
         <v>16</v>
       </c>
       <c r="E17" t="s">
+        <v>30</v>
+      </c>
+      <c r="F17" t="s">
         <v>31</v>
-      </c>
-      <c r="F17" t="s">
-        <v>32</v>
       </c>
       <c r="G17" t="n">
         <v>1</v>
@@ -2021,10 +1997,10 @@
         <v>17</v>
       </c>
       <c r="E18" t="s">
+        <v>32</v>
+      </c>
+      <c r="F18" t="s">
         <v>33</v>
-      </c>
-      <c r="F18" t="s">
-        <v>34</v>
       </c>
       <c r="G18" t="n">
         <v>1</v>
@@ -2050,10 +2026,10 @@
         <v>18</v>
       </c>
       <c r="E19" t="s">
+        <v>34</v>
+      </c>
+      <c r="F19" t="s">
         <v>35</v>
-      </c>
-      <c r="F19" t="s">
-        <v>36</v>
       </c>
       <c r="G19" t="n">
         <v>1</v>
@@ -2079,10 +2055,10 @@
         <v>19</v>
       </c>
       <c r="E20" t="s">
+        <v>36</v>
+      </c>
+      <c r="F20" t="s">
         <v>37</v>
-      </c>
-      <c r="F20" t="s">
-        <v>38</v>
       </c>
       <c r="G20" t="n">
         <v>1</v>
@@ -2108,10 +2084,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="s">
+        <v>38</v>
+      </c>
+      <c r="F21" t="s">
         <v>39</v>
-      </c>
-      <c r="F21" t="s">
-        <v>40</v>
       </c>
       <c r="G21" t="n">
         <v>1</v>
@@ -2137,10 +2113,10 @@
         <v>21</v>
       </c>
       <c r="E22" t="s">
+        <v>40</v>
+      </c>
+      <c r="F22" t="s">
         <v>41</v>
-      </c>
-      <c r="F22" t="s">
-        <v>42</v>
       </c>
       <c r="G22" t="n">
         <v>1</v>
@@ -2166,10 +2142,10 @@
         <v>22</v>
       </c>
       <c r="E23" t="s">
+        <v>42</v>
+      </c>
+      <c r="F23" t="s">
         <v>43</v>
-      </c>
-      <c r="F23" t="s">
-        <v>44</v>
       </c>
       <c r="G23" t="n">
         <v>1</v>
@@ -2195,10 +2171,10 @@
         <v>23</v>
       </c>
       <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
         <v>45</v>
-      </c>
-      <c r="F24" t="s">
-        <v>46</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
@@ -2224,10 +2200,10 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
+        <v>46</v>
+      </c>
+      <c r="F25" t="s">
         <v>47</v>
-      </c>
-      <c r="F25" t="s">
-        <v>48</v>
       </c>
       <c r="G25" t="n">
         <v>1</v>
@@ -2253,10 +2229,10 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
+        <v>48</v>
+      </c>
+      <c r="F26" t="s">
         <v>49</v>
-      </c>
-      <c r="F26" t="s">
-        <v>50</v>
       </c>
       <c r="G26" t="n">
         <v>1</v>
@@ -2282,10 +2258,10 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
+        <v>50</v>
+      </c>
+      <c r="F27" t="s">
         <v>51</v>
-      </c>
-      <c r="F27" t="s">
-        <v>52</v>
       </c>
       <c r="G27" t="n">
         <v>1</v>
@@ -2311,10 +2287,10 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
+        <v>52</v>
+      </c>
+      <c r="F28" t="s">
         <v>53</v>
-      </c>
-      <c r="F28" t="s">
-        <v>54</v>
       </c>
       <c r="G28" t="n">
         <v>1</v>
@@ -2340,10 +2316,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
+        <v>54</v>
+      </c>
+      <c r="F29" t="s">
         <v>55</v>
-      </c>
-      <c r="F29" t="s">
-        <v>56</v>
       </c>
       <c r="G29" t="n">
         <v>1</v>
@@ -2369,10 +2345,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
+        <v>56</v>
+      </c>
+      <c r="F30" t="s">
         <v>57</v>
-      </c>
-      <c r="F30" t="s">
-        <v>58</v>
       </c>
       <c r="G30" t="n">
         <v>1</v>
@@ -2398,10 +2374,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
+        <v>58</v>
+      </c>
+      <c r="F31" t="s">
         <v>59</v>
-      </c>
-      <c r="F31" t="s">
-        <v>60</v>
       </c>
       <c r="G31" t="n">
         <v>1</v>
@@ -2427,10 +2403,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
+        <v>60</v>
+      </c>
+      <c r="F32" t="s">
         <v>61</v>
-      </c>
-      <c r="F32" t="s">
-        <v>62</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
@@ -2456,10 +2432,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
+        <v>62</v>
+      </c>
+      <c r="F33" t="s">
         <v>63</v>
-      </c>
-      <c r="F33" t="s">
-        <v>64</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
@@ -2485,13 +2461,13 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
+        <v>64</v>
+      </c>
+      <c r="F34" t="s">
         <v>65</v>
       </c>
-      <c r="F34" t="s">
-        <v>66</v>
-      </c>
       <c r="G34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H34" t="s">
         <v>4</v>
@@ -2514,13 +2490,13 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
+        <v>66</v>
+      </c>
+      <c r="F35" t="s">
         <v>67</v>
       </c>
-      <c r="F35" t="s">
-        <v>68</v>
-      </c>
       <c r="G35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H35" t="s">
         <v>4</v>
@@ -2543,10 +2519,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
+        <v>68</v>
+      </c>
+      <c r="F36" t="s">
         <v>69</v>
-      </c>
-      <c r="F36" t="s">
-        <v>70</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
@@ -2572,10 +2548,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
+        <v>70</v>
+      </c>
+      <c r="F37" t="s">
         <v>71</v>
-      </c>
-      <c r="F37" t="s">
-        <v>72</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
@@ -2601,10 +2577,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
+        <v>72</v>
+      </c>
+      <c r="F38" t="s">
         <v>73</v>
-      </c>
-      <c r="F38" t="s">
-        <v>74</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
@@ -2630,10 +2606,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
+        <v>74</v>
+      </c>
+      <c r="F39" t="s">
         <v>75</v>
-      </c>
-      <c r="F39" t="s">
-        <v>76</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
@@ -2659,10 +2635,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
+        <v>76</v>
+      </c>
+      <c r="F40" t="s">
         <v>77</v>
-      </c>
-      <c r="F40" t="s">
-        <v>78</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
@@ -2688,10 +2664,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
+        <v>78</v>
+      </c>
+      <c r="F41" t="s">
         <v>79</v>
-      </c>
-      <c r="F41" t="s">
-        <v>80</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
@@ -2717,13 +2693,13 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
+        <v>80</v>
+      </c>
+      <c r="F42" t="s">
         <v>81</v>
       </c>
-      <c r="F42" t="s">
-        <v>82</v>
-      </c>
       <c r="G42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H42" t="s">
         <v>4</v>
@@ -2746,13 +2722,13 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
+        <v>82</v>
+      </c>
+      <c r="F43" t="s">
         <v>83</v>
       </c>
-      <c r="F43" t="s">
-        <v>84</v>
-      </c>
       <c r="G43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H43" t="s">
         <v>4</v>
@@ -2775,10 +2751,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
+        <v>84</v>
+      </c>
+      <c r="F44" t="s">
         <v>85</v>
-      </c>
-      <c r="F44" t="s">
-        <v>86</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -2804,10 +2780,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
+        <v>86</v>
+      </c>
+      <c r="F45" t="s">
         <v>87</v>
-      </c>
-      <c r="F45" t="s">
-        <v>88</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
@@ -2833,10 +2809,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
+        <v>88</v>
+      </c>
+      <c r="F46" t="s">
         <v>89</v>
-      </c>
-      <c r="F46" t="s">
-        <v>90</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -2862,10 +2838,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
+        <v>90</v>
+      </c>
+      <c r="F47" t="s">
         <v>91</v>
-      </c>
-      <c r="F47" t="s">
-        <v>92</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -2891,10 +2867,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
+        <v>92</v>
+      </c>
+      <c r="F48" t="s">
         <v>93</v>
-      </c>
-      <c r="F48" t="s">
-        <v>94</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -2920,10 +2896,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
+        <v>94</v>
+      </c>
+      <c r="F49" t="s">
         <v>95</v>
-      </c>
-      <c r="F49" t="s">
-        <v>96</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -2949,10 +2925,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
+        <v>96</v>
+      </c>
+      <c r="F50" t="s">
         <v>97</v>
-      </c>
-      <c r="F50" t="s">
-        <v>98</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -2978,10 +2954,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
+        <v>98</v>
+      </c>
+      <c r="F51" t="s">
         <v>99</v>
-      </c>
-      <c r="F51" t="s">
-        <v>100</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -3007,10 +2983,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
+        <v>100</v>
+      </c>
+      <c r="F52" t="s">
         <v>101</v>
-      </c>
-      <c r="F52" t="s">
-        <v>102</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -3036,10 +3012,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
+        <v>102</v>
+      </c>
+      <c r="F53" t="s">
         <v>103</v>
-      </c>
-      <c r="F53" t="s">
-        <v>104</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -3065,10 +3041,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
+        <v>104</v>
+      </c>
+      <c r="F54" t="s">
         <v>105</v>
-      </c>
-      <c r="F54" t="s">
-        <v>106</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -3094,10 +3070,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
+        <v>106</v>
+      </c>
+      <c r="F55" t="s">
         <v>107</v>
-      </c>
-      <c r="F55" t="s">
-        <v>108</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -3123,10 +3099,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
+        <v>108</v>
+      </c>
+      <c r="F56" t="s">
         <v>109</v>
-      </c>
-      <c r="F56" t="s">
-        <v>110</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -3152,10 +3128,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
+        <v>110</v>
+      </c>
+      <c r="F57" t="s">
         <v>111</v>
-      </c>
-      <c r="F57" t="s">
-        <v>112</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -3181,13 +3157,13 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
+        <v>112</v>
+      </c>
+      <c r="F58" t="s">
         <v>113</v>
       </c>
-      <c r="F58" t="s">
-        <v>114</v>
-      </c>
       <c r="G58" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H58" t="s">
         <v>4</v>
@@ -3210,13 +3186,13 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
+        <v>114</v>
+      </c>
+      <c r="F59" t="s">
         <v>115</v>
       </c>
-      <c r="F59" t="s">
-        <v>116</v>
-      </c>
       <c r="G59" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H59" t="s">
         <v>4</v>
@@ -3239,10 +3215,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
+        <v>116</v>
+      </c>
+      <c r="F60" t="s">
         <v>117</v>
-      </c>
-      <c r="F60" t="s">
-        <v>118</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -3268,10 +3244,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
+        <v>118</v>
+      </c>
+      <c r="F61" t="s">
         <v>119</v>
-      </c>
-      <c r="F61" t="s">
-        <v>120</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -3297,10 +3273,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
+        <v>120</v>
+      </c>
+      <c r="F62" t="s">
         <v>121</v>
-      </c>
-      <c r="F62" t="s">
-        <v>122</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -3326,13 +3302,13 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
+        <v>122</v>
+      </c>
+      <c r="F63" t="s">
         <v>123</v>
       </c>
-      <c r="F63" t="s">
-        <v>124</v>
-      </c>
       <c r="G63" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="H63" t="s">
         <v>4</v>
@@ -3355,13 +3331,13 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
+        <v>124</v>
+      </c>
+      <c r="F64" t="s">
         <v>125</v>
       </c>
-      <c r="F64" t="s">
-        <v>126</v>
-      </c>
       <c r="G64" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="H64" t="s">
         <v>4</v>
@@ -3384,10 +3360,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
+        <v>126</v>
+      </c>
+      <c r="F65" t="s">
         <v>127</v>
-      </c>
-      <c r="F65" t="s">
-        <v>128</v>
       </c>
       <c r="G65" t="n">
         <v>4</v>
@@ -3413,13 +3389,13 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
+        <v>128</v>
+      </c>
+      <c r="F66" t="s">
         <v>129</v>
       </c>
-      <c r="F66" t="s">
-        <v>130</v>
-      </c>
       <c r="G66" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="H66" t="s">
         <v>4</v>
@@ -3442,13 +3418,13 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
+        <v>130</v>
+      </c>
+      <c r="F67" t="s">
         <v>131</v>
       </c>
-      <c r="F67" t="s">
-        <v>132</v>
-      </c>
       <c r="G67" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="H67" t="s">
         <v>4</v>
@@ -3471,10 +3447,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
+        <v>132</v>
+      </c>
+      <c r="F68" t="s">
         <v>133</v>
-      </c>
-      <c r="F68" t="s">
-        <v>134</v>
       </c>
       <c r="G68" t="n">
         <v>2</v>
@@ -3500,10 +3476,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
+        <v>134</v>
+      </c>
+      <c r="F69" t="s">
         <v>135</v>
-      </c>
-      <c r="F69" t="s">
-        <v>136</v>
       </c>
       <c r="G69" t="n">
         <v>2</v>
@@ -3529,13 +3505,13 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
+        <v>136</v>
+      </c>
+      <c r="F70" t="s">
         <v>137</v>
       </c>
-      <c r="F70" t="s">
-        <v>138</v>
-      </c>
       <c r="G70" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H70" t="s">
         <v>4</v>
@@ -3558,13 +3534,13 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
+        <v>138</v>
+      </c>
+      <c r="F71" t="s">
         <v>139</v>
       </c>
-      <c r="F71" t="s">
-        <v>140</v>
-      </c>
       <c r="G71" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H71" t="s">
         <v>4</v>
@@ -3587,10 +3563,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
+        <v>140</v>
+      </c>
+      <c r="F72" t="s">
         <v>141</v>
-      </c>
-      <c r="F72" t="s">
-        <v>142</v>
       </c>
       <c r="G72" t="n">
         <v>2</v>
@@ -3616,10 +3592,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>19</v>
+        <v>142</v>
       </c>
       <c r="F73" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G73" t="n">
         <v>2</v>
@@ -3645,10 +3621,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>143</v>
+        <v>20</v>
       </c>
       <c r="F74" t="s">
-        <v>144</v>
+        <v>21</v>
       </c>
       <c r="G74" t="n">
         <v>2</v>
@@ -3674,13 +3650,13 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F75" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G75" t="n">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="H75" t="s">
         <v>4</v>
@@ -3703,13 +3679,13 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F76" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G76" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H76" t="s">
         <v>4</v>
@@ -3732,13 +3708,13 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F77" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G77" t="n">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="H77" t="s">
         <v>4</v>
@@ -3761,13 +3737,13 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F78" t="s">
-        <v>152</v>
+        <v>125</v>
       </c>
       <c r="G78" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H78" t="s">
         <v>4</v>
@@ -3790,10 +3766,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F79" t="s">
-        <v>154</v>
+        <v>18</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -3819,10 +3795,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="F80" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -3848,13 +3824,13 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="F81" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="G81" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H81" t="s">
         <v>4</v>
@@ -3877,13 +3853,13 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F82" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="G82" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H82" t="s">
         <v>4</v>
@@ -3906,10 +3882,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="F83" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -3935,10 +3911,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F84" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -3964,13 +3940,13 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="F85" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="G85" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H85" t="s">
         <v>4</v>
@@ -3993,13 +3969,13 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="F86" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G86" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H86" t="s">
         <v>4</v>
@@ -4022,13 +3998,13 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>7</v>
+        <v>165</v>
       </c>
       <c r="F87" t="s">
-        <v>8</v>
+        <v>166</v>
       </c>
       <c r="G87" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H87" t="s">
         <v>4</v>
@@ -4051,13 +4027,13 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>169</v>
+        <v>7</v>
       </c>
       <c r="F88" t="s">
-        <v>170</v>
+        <v>8</v>
       </c>
       <c r="G88" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H88" t="s">
         <v>4</v>
@@ -4080,10 +4056,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F89" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -4109,10 +4085,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="F90" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -4138,13 +4114,13 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F91" t="s">
-        <v>176</v>
+        <v>154</v>
       </c>
       <c r="G91" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H91" t="s">
         <v>4</v>
@@ -4167,13 +4143,13 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="F92" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="G92" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H92" t="s">
         <v>4</v>
@@ -4196,13 +4172,13 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="F93" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="G93" t="n">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="H93" t="s">
         <v>4</v>
@@ -4225,13 +4201,13 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="F94" t="s">
-        <v>182</v>
+        <v>148</v>
       </c>
       <c r="G94" t="n">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="H94" t="s">
         <v>4</v>
@@ -4254,10 +4230,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="F95" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -4283,13 +4259,13 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="F96" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="G96" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H96" t="s">
         <v>4</v>
@@ -4312,13 +4288,13 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="F97" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="G97" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H97" t="s">
         <v>4</v>
@@ -4341,10 +4317,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="F98" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -4370,13 +4346,13 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="F99" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="G99" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H99" t="s">
         <v>4</v>
@@ -4399,13 +4375,13 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="F100" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="G100" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H100" t="s">
         <v>4</v>
@@ -4428,10 +4404,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="F101" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -4457,13 +4433,13 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="F102" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="G102" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H102" t="s">
         <v>4</v>
@@ -4486,13 +4462,13 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="F103" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="G103" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H103" t="s">
         <v>4</v>
@@ -4515,10 +4491,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="F104" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -4544,10 +4520,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="F105" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -4573,10 +4549,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="F106" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -4602,10 +4578,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="F107" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -4631,10 +4607,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="F108" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -4660,13 +4636,13 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>151</v>
+        <v>205</v>
       </c>
       <c r="F109" t="s">
-        <v>152</v>
+        <v>206</v>
       </c>
       <c r="G109" t="n">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="H109" t="s">
         <v>4</v>
@@ -4689,13 +4665,13 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>211</v>
+        <v>150</v>
       </c>
       <c r="F110" t="s">
-        <v>212</v>
+        <v>18</v>
       </c>
       <c r="G110" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="H110" t="s">
         <v>4</v>
@@ -4718,13 +4694,13 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="F111" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="G111" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H111" t="s">
         <v>4</v>
@@ -4747,10 +4723,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="F112" t="s">
-        <v>216</v>
+        <v>170</v>
       </c>
       <c r="G112" t="n">
         <v>2</v>
@@ -4776,13 +4752,13 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="F113" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="G113" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H113" t="s">
         <v>4</v>
@@ -4805,10 +4781,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="F114" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -4834,10 +4810,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="F115" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -4863,13 +4839,13 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="F116" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="G116" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="H116" t="s">
         <v>4</v>
@@ -4892,13 +4868,13 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="F117" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="G117" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="H117" t="s">
         <v>4</v>
@@ -4921,13 +4897,13 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="F118" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="G118" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H118" t="s">
         <v>4</v>
@@ -4950,10 +4926,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="F119" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -4979,13 +4955,13 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="F120" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="G120" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="H120" t="s">
         <v>4</v>
@@ -5008,10 +4984,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="F121" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="G121" t="n">
         <v>9</v>
@@ -5037,10 +5013,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="F122" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="G122" t="n">
         <v>9</v>
@@ -5066,13 +5042,13 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="F123" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="G123" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H123" t="s">
         <v>4</v>
@@ -5095,13 +5071,13 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="F124" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="G124" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H124" t="s">
         <v>4</v>
@@ -5124,10 +5100,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="F125" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="G125" t="n">
         <v>9</v>
@@ -5153,10 +5129,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="F126" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="G126" t="n">
         <v>9</v>
@@ -5182,13 +5158,13 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="F127" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="G127" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H127" t="s">
         <v>4</v>
@@ -5211,13 +5187,13 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="F128" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="G128" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H128" t="s">
         <v>4</v>
@@ -5240,13 +5216,13 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="F129" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="G129" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H129" t="s">
         <v>4</v>
@@ -5269,10 +5245,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="F130" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="G130" t="n">
         <v>8</v>
@@ -5298,10 +5274,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="F131" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="G131" t="n">
         <v>8</v>
@@ -5327,10 +5303,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="F132" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="G132" t="n">
         <v>8</v>
@@ -5356,13 +5332,13 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="F133" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="G133" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H133" t="s">
         <v>4</v>
@@ -5385,13 +5361,13 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="F134" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="G134" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="H134" t="s">
         <v>4</v>
@@ -5414,13 +5390,13 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="F135" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="G135" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H135" t="s">
         <v>4</v>
@@ -5443,13 +5419,13 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="F136" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="G136" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H136" t="s">
         <v>4</v>
@@ -5472,13 +5448,13 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="F137" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="G137" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H137" t="s">
         <v>4</v>
@@ -5501,13 +5477,13 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="F138" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="G138" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H138" t="s">
         <v>4</v>
@@ -5530,13 +5506,13 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="F139" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="G139" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H139" t="s">
         <v>4</v>
@@ -5559,13 +5535,13 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="F140" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="G140" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H140" t="s">
         <v>4</v>
@@ -5588,13 +5564,13 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="F141" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="G141" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H141" t="s">
         <v>4</v>
@@ -5617,13 +5593,13 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="F142" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="G142" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H142" t="s">
         <v>4</v>
@@ -5646,10 +5622,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="F143" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="G143" t="n">
         <v>5</v>
@@ -5675,10 +5651,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="F144" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="G144" t="n">
         <v>5</v>
@@ -5704,10 +5680,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="F145" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="G145" t="n">
         <v>5</v>
@@ -5733,10 +5709,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="F146" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="G146" t="n">
         <v>5</v>
@@ -5762,10 +5738,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="F147" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="G147" t="n">
         <v>5</v>
@@ -5791,10 +5767,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="F148" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="G148" t="n">
         <v>5</v>
@@ -5820,13 +5796,13 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="F149" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="G149" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H149" t="s">
         <v>4</v>
@@ -5849,10 +5825,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="F150" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="G150" t="n">
         <v>4</v>
@@ -5878,10 +5854,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="F151" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="G151" t="n">
         <v>4</v>
@@ -5907,13 +5883,13 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="F152" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="G152" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H152" t="s">
         <v>4</v>
@@ -5936,10 +5912,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="F153" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="G153" t="n">
         <v>3</v>
@@ -5965,13 +5941,13 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>125</v>
+        <v>292</v>
       </c>
       <c r="F154" t="s">
-        <v>126</v>
+        <v>293</v>
       </c>
       <c r="G154" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H154" t="s">
         <v>4</v>
@@ -5994,13 +5970,13 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>299</v>
+        <v>126</v>
       </c>
       <c r="F155" t="s">
-        <v>300</v>
+        <v>127</v>
       </c>
       <c r="G155" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H155" t="s">
         <v>4</v>
@@ -6023,13 +5999,13 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="F156" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="G156" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H156" t="s">
         <v>4</v>
@@ -6052,10 +6028,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="F157" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="G157" t="n">
         <v>4</v>
@@ -6081,13 +6057,13 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="F158" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="G158" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H158" t="s">
         <v>4</v>
@@ -6110,13 +6086,13 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="F159" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="G159" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H159" t="s">
         <v>4</v>
@@ -6139,13 +6115,13 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>245</v>
+        <v>302</v>
       </c>
       <c r="F160" t="s">
-        <v>246</v>
+        <v>303</v>
       </c>
       <c r="G160" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H160" t="s">
         <v>4</v>
@@ -6168,13 +6144,13 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>259</v>
+        <v>240</v>
       </c>
       <c r="F161" t="s">
-        <v>260</v>
+        <v>241</v>
       </c>
       <c r="G161" t="n">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="H161" t="s">
         <v>4</v>
@@ -6197,10 +6173,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="F162" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="G162" t="n">
         <v>21</v>
@@ -6226,10 +6202,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>289</v>
+        <v>256</v>
       </c>
       <c r="F163" t="s">
-        <v>290</v>
+        <v>257</v>
       </c>
       <c r="G163" t="n">
         <v>21</v>
@@ -6255,10 +6231,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>267</v>
+        <v>284</v>
       </c>
       <c r="F164" t="s">
-        <v>268</v>
+        <v>285</v>
       </c>
       <c r="G164" t="n">
         <v>21</v>
@@ -6284,10 +6260,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="F165" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="G165" t="n">
         <v>21</v>
@@ -6313,10 +6289,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F166" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G166" t="n">
         <v>21</v>
@@ -6342,10 +6318,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="F167" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="G167" t="n">
         <v>21</v>
@@ -6371,10 +6347,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>293</v>
+        <v>260</v>
       </c>
       <c r="F168" t="s">
-        <v>294</v>
+        <v>261</v>
       </c>
       <c r="G168" t="n">
         <v>21</v>
@@ -6400,10 +6376,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="F169" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="G169" t="n">
         <v>21</v>
@@ -6429,10 +6405,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>271</v>
+        <v>290</v>
       </c>
       <c r="F170" t="s">
-        <v>272</v>
+        <v>291</v>
       </c>
       <c r="G170" t="n">
         <v>21</v>
@@ -6458,10 +6434,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="F171" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="G171" t="n">
         <v>21</v>
@@ -6487,10 +6463,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="F172" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="G172" t="n">
         <v>21</v>
@@ -6516,10 +6492,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="F173" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="G173" t="n">
         <v>21</v>
@@ -6545,10 +6521,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>297</v>
+        <v>272</v>
       </c>
       <c r="F174" t="s">
-        <v>298</v>
+        <v>273</v>
       </c>
       <c r="G174" t="n">
         <v>21</v>
@@ -6574,10 +6550,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>231</v>
+        <v>292</v>
       </c>
       <c r="F175" t="s">
-        <v>232</v>
+        <v>293</v>
       </c>
       <c r="G175" t="n">
         <v>21</v>
@@ -6603,10 +6579,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>251</v>
+        <v>226</v>
       </c>
       <c r="F176" t="s">
-        <v>252</v>
+        <v>227</v>
       </c>
       <c r="G176" t="n">
         <v>21</v>
@@ -6632,10 +6608,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>235</v>
+        <v>246</v>
       </c>
       <c r="F177" t="s">
-        <v>236</v>
+        <v>247</v>
       </c>
       <c r="G177" t="n">
         <v>21</v>
@@ -6661,10 +6637,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>253</v>
+        <v>230</v>
       </c>
       <c r="F178" t="s">
-        <v>254</v>
+        <v>231</v>
       </c>
       <c r="G178" t="n">
         <v>21</v>
@@ -6690,10 +6666,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="F179" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="G179" t="n">
         <v>21</v>
@@ -6719,10 +6695,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="F180" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="G180" t="n">
         <v>21</v>
@@ -6748,10 +6724,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="F181" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="G181" t="n">
         <v>21</v>
@@ -6777,10 +6753,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="F182" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="G182" t="n">
         <v>21</v>
@@ -6806,10 +6782,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="F183" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="G183" t="n">
         <v>21</v>
@@ -6835,10 +6811,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>255</v>
+        <v>236</v>
       </c>
       <c r="F184" t="s">
-        <v>256</v>
+        <v>237</v>
       </c>
       <c r="G184" t="n">
         <v>21</v>
@@ -6864,10 +6840,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
       <c r="F185" t="s">
-        <v>238</v>
+        <v>251</v>
       </c>
       <c r="G185" t="n">
         <v>21</v>
@@ -6893,10 +6869,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
+        <v>232</v>
+      </c>
+      <c r="F186" t="s">
         <v>233</v>
-      </c>
-      <c r="F186" t="s">
-        <v>234</v>
       </c>
       <c r="G186" t="n">
         <v>21</v>
@@ -6922,10 +6898,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="F187" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="G187" t="n">
         <v>21</v>
@@ -6951,10 +6927,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="F188" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="G188" t="n">
         <v>21</v>
@@ -6980,13 +6956,13 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>309</v>
+        <v>240</v>
       </c>
       <c r="F189" t="s">
-        <v>310</v>
+        <v>241</v>
       </c>
       <c r="G189" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="H189" t="s">
         <v>4</v>
@@ -7009,13 +6985,13 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="F190" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="G190" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H190" t="s">
         <v>4</v>
@@ -7038,13 +7014,13 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="F191" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="G191" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H191" t="s">
         <v>4</v>
@@ -7067,10 +7043,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="F192" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -7096,10 +7072,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="F193" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -7125,10 +7101,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="F194" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -7154,10 +7130,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="F195" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -7183,10 +7159,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="F196" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -7212,10 +7188,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="F197" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -7241,10 +7217,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="F198" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -7270,13 +7246,13 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="F199" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="G199" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H199" t="s">
         <v>4</v>
@@ -7299,13 +7275,13 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="F200" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="G200" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H200" t="s">
         <v>4</v>
@@ -7328,10 +7304,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="F201" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -7357,10 +7333,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>227</v>
+        <v>328</v>
       </c>
       <c r="F202" t="s">
-        <v>228</v>
+        <v>329</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -7386,10 +7362,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>335</v>
+        <v>222</v>
       </c>
       <c r="F203" t="s">
-        <v>336</v>
+        <v>223</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -7415,13 +7391,13 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>151</v>
+        <v>330</v>
       </c>
       <c r="F204" t="s">
-        <v>152</v>
+        <v>331</v>
       </c>
       <c r="G204" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="H204" t="s">
         <v>4</v>
@@ -7444,13 +7420,13 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>337</v>
+        <v>150</v>
       </c>
       <c r="F205" t="s">
-        <v>338</v>
+        <v>18</v>
       </c>
       <c r="G205" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="H205" t="s">
         <v>4</v>
@@ -7473,10 +7449,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="F206" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -7502,13 +7478,13 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="F207" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="G207" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H207" t="s">
         <v>4</v>
@@ -7531,13 +7507,13 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="F208" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="G208" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H208" t="s">
         <v>4</v>
@@ -7560,10 +7536,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="F209" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -7589,10 +7565,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="F210" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -7618,13 +7594,13 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="F211" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="G211" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H211" t="s">
         <v>4</v>
@@ -7647,13 +7623,13 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="F212" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="G212" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="H212" t="s">
         <v>4</v>
@@ -7676,13 +7652,13 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="F213" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="G213" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H213" t="s">
         <v>4</v>
@@ -7705,10 +7681,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="F214" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -7734,10 +7710,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="F215" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -7763,10 +7739,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="F216" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -7792,10 +7768,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="F217" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -7821,10 +7797,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="F218" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -7850,10 +7826,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="F219" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -7879,10 +7855,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="F220" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -7908,10 +7884,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="F221" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -7937,10 +7913,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="F222" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -7966,10 +7942,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="F223" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -7995,10 +7971,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="F224" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -8024,10 +8000,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="F225" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -8053,47 +8029,18 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="F226" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="G226" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H226" t="s">
         <v>4</v>
       </c>
       <c r="I226" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="227" spans="1:9">
-      <c r="A227" s="1" t="n">
-        <v>225</v>
-      </c>
-      <c r="B227" t="s">
-        <v>0</v>
-      </c>
-      <c r="C227" t="s">
-        <v>1</v>
-      </c>
-      <c r="D227" t="n">
-        <v>226</v>
-      </c>
-      <c r="E227" t="s">
-        <v>379</v>
-      </c>
-      <c r="F227" t="s">
-        <v>381</v>
-      </c>
-      <c r="G227" t="n">
-        <v>1</v>
-      </c>
-      <c r="H227" t="s">
-        <v>4</v>
-      </c>
-      <c r="I227" t="n">
         <v>3</v>
       </c>
     </row>
